--- a/jeng/Capstone 2 Docs/Chapters/Definition of terms.xlsx
+++ b/jeng/Capstone 2 Docs/Chapters/Definition of terms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\capstone\jeng\Capstone 2 Docs\Chapters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF73156-B4DA-486D-8D91-7E28D0591B3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B55954-8D9A-4B2B-A009-9F4782F48AB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,10 +18,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$27</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -30,12 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>Cipher text</t>
   </si>
   <si>
@@ -274,19 +277,31 @@
   </si>
   <si>
     <t>Authorized nodes in the blockchain to propose a block</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Definition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -297,7 +312,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -305,12 +320,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,341 +632,343 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.21875" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="46" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B27" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="28" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="78" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    </row>
+    <row r="41" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
